--- a/Code/Results/Cases/Case_0_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_220/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.414130783878973</v>
+        <v>5.2432754109253</v>
       </c>
       <c r="D2">
-        <v>12.00637916359282</v>
+        <v>9.63159552473418</v>
       </c>
       <c r="E2">
-        <v>5.071312577705135</v>
+        <v>9.745651487040339</v>
       </c>
       <c r="F2">
-        <v>98.58828094651416</v>
+        <v>98.45660804162037</v>
       </c>
       <c r="G2">
-        <v>1.923464916667117</v>
+        <v>3.982324374123778</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>72.11409571982379</v>
+        <v>73.95804897221228</v>
       </c>
       <c r="J2">
-        <v>7.080994598266757</v>
+        <v>12.81920940909195</v>
       </c>
       <c r="L2">
-        <v>5.271597208065821</v>
+        <v>10.7835427499928</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7.581908303668991</v>
+        <v>5.104302578158464</v>
       </c>
       <c r="D3">
-        <v>10.81296561160091</v>
+        <v>9.507952370026249</v>
       </c>
       <c r="E3">
-        <v>5.149680757859427</v>
+        <v>9.769517484570104</v>
       </c>
       <c r="F3">
-        <v>90.85479036693187</v>
+        <v>97.91541962454778</v>
       </c>
       <c r="G3">
-        <v>1.985904173241327</v>
+        <v>3.995125036841528</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>66.56914564901297</v>
+        <v>73.60855874301228</v>
       </c>
       <c r="J3">
-        <v>7.02804589688372</v>
+        <v>12.86737087250441</v>
       </c>
       <c r="L3">
-        <v>5.39380657057211</v>
+        <v>10.82757635981412</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.091225524415782</v>
+        <v>5.019783746689234</v>
       </c>
       <c r="D4">
-        <v>10.15166519145969</v>
+        <v>9.435544475530445</v>
       </c>
       <c r="E4">
-        <v>5.196557515890757</v>
+        <v>9.784905445943942</v>
       </c>
       <c r="F4">
-        <v>86.46813461439507</v>
+        <v>97.61875603217129</v>
       </c>
       <c r="G4">
-        <v>2.021123871341888</v>
+        <v>4.003331750578287</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>63.4351157853507</v>
+        <v>73.42041106809553</v>
       </c>
       <c r="J4">
-        <v>7.012005485980925</v>
+        <v>12.89946642057406</v>
       </c>
       <c r="L4">
-        <v>5.468040825506294</v>
+        <v>10.85617237651303</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.893426165347721</v>
+        <v>4.985594426278229</v>
       </c>
       <c r="D5">
-        <v>9.910634554840662</v>
+        <v>9.406939693557337</v>
       </c>
       <c r="E5">
-        <v>5.21552593916092</v>
+        <v>9.791361987479481</v>
       </c>
       <c r="F5">
-        <v>84.74048599244664</v>
+        <v>97.50679875096158</v>
       </c>
       <c r="G5">
-        <v>2.034988104162371</v>
+        <v>4.006764203830502</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>62.20304692263674</v>
+        <v>73.35035957527111</v>
       </c>
       <c r="J5">
-        <v>7.008718965991538</v>
+        <v>12.91317891532743</v>
       </c>
       <c r="L5">
-        <v>5.498361392428778</v>
+        <v>10.86821925778727</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.860649720052053</v>
+        <v>4.979934027558397</v>
       </c>
       <c r="D6">
-        <v>9.870914276544067</v>
+        <v>9.402244896250163</v>
       </c>
       <c r="E6">
-        <v>5.218671497663805</v>
+        <v>9.79244534984664</v>
       </c>
       <c r="F6">
-        <v>84.45665679222772</v>
+        <v>97.48874706387835</v>
       </c>
       <c r="G6">
-        <v>2.037267037016952</v>
+        <v>4.007339509630406</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>62.00076709594015</v>
+        <v>73.33912641365818</v>
       </c>
       <c r="J6">
-        <v>7.008350268852192</v>
+        <v>12.91549407390725</v>
       </c>
       <c r="L6">
-        <v>5.503406102658307</v>
+        <v>10.8702434657943</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.088552139709531</v>
+        <v>5.019321568819845</v>
       </c>
       <c r="D7">
-        <v>10.14839274248567</v>
+        <v>9.435155025069399</v>
       </c>
       <c r="E7">
-        <v>5.196813687836879</v>
+        <v>9.784991767126817</v>
       </c>
       <c r="F7">
-        <v>86.44461952366063</v>
+        <v>97.61720999822525</v>
       </c>
       <c r="G7">
-        <v>2.021312529590716</v>
+        <v>4.003377683767833</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>63.41833701998642</v>
+        <v>73.41943956831911</v>
       </c>
       <c r="J7">
-        <v>7.011948910474977</v>
+        <v>12.89964878968761</v>
       </c>
       <c r="L7">
-        <v>5.468449184169329</v>
+        <v>10.8563332483378</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.120660547835461</v>
+        <v>5.195218212051413</v>
       </c>
       <c r="D8">
-        <v>11.58526681576326</v>
+        <v>9.588247358543912</v>
       </c>
       <c r="E8">
-        <v>5.098725258950164</v>
+        <v>9.753728849786581</v>
       </c>
       <c r="F8">
-        <v>95.81441571786679</v>
+        <v>98.26260144000041</v>
       </c>
       <c r="G8">
-        <v>1.945872459090827</v>
+        <v>3.986666547945113</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>70.12106943365509</v>
+        <v>73.83204242442808</v>
       </c>
       <c r="J8">
-        <v>7.058632663834653</v>
+        <v>12.83529069276932</v>
       </c>
       <c r="L8">
-        <v>5.314112242529434</v>
+        <v>10.79840295209612</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10.64623758099735</v>
+        <v>5.544512110489363</v>
       </c>
       <c r="D9">
-        <v>15.21265273968774</v>
+        <v>9.915351719947514</v>
       </c>
       <c r="E9">
-        <v>4.879236805537168</v>
+        <v>9.698191484204274</v>
       </c>
       <c r="F9">
-        <v>121.2200917683144</v>
+        <v>99.81138231629728</v>
       </c>
       <c r="G9">
-        <v>1.739191594546114</v>
+        <v>3.956608911971034</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>88.99899906872456</v>
+        <v>74.85184375658845</v>
       </c>
       <c r="J9">
-        <v>7.378559810059899</v>
+        <v>12.72918208221883</v>
       </c>
       <c r="L9">
-        <v>4.974490928422894</v>
+        <v>10.69709614158885</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10.64623758099735</v>
+        <v>5.801171664348588</v>
       </c>
       <c r="D10">
-        <v>15.21265273968774</v>
+        <v>10.17068383713276</v>
       </c>
       <c r="E10">
-        <v>4.879236805537168</v>
+        <v>9.660825974703121</v>
       </c>
       <c r="F10">
-        <v>121.2200917683144</v>
+        <v>101.1218036377911</v>
       </c>
       <c r="G10">
-        <v>1.739191594546114</v>
+        <v>3.936120989532283</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>88.99899906872456</v>
+        <v>75.73024894881925</v>
       </c>
       <c r="J10">
-        <v>7.378559810059899</v>
+        <v>12.66357806392296</v>
       </c>
       <c r="L10">
-        <v>4.974490928422894</v>
+        <v>10.6300530449684</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.64623758099735</v>
+        <v>5.917438816810465</v>
       </c>
       <c r="D11">
-        <v>15.21265273968774</v>
+        <v>10.28978353325452</v>
       </c>
       <c r="E11">
-        <v>4.879236805537168</v>
+        <v>9.644556442143589</v>
       </c>
       <c r="F11">
-        <v>121.2200917683144</v>
+        <v>101.7551583577401</v>
       </c>
       <c r="G11">
-        <v>1.739191594546114</v>
+        <v>3.92713383011899</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>88.99899906872456</v>
+        <v>76.15789633293811</v>
       </c>
       <c r="J11">
-        <v>7.378559810059899</v>
+        <v>12.63644007479573</v>
       </c>
       <c r="L11">
-        <v>4.974490928422894</v>
+        <v>10.6011340615302</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.64623758099735</v>
+        <v>5.961358400866619</v>
       </c>
       <c r="D12">
-        <v>15.21265273968774</v>
+        <v>10.3352799691126</v>
       </c>
       <c r="E12">
-        <v>4.879236805537168</v>
+        <v>9.638498886602877</v>
       </c>
       <c r="F12">
-        <v>121.2200917683144</v>
+        <v>102.0003087632881</v>
       </c>
       <c r="G12">
-        <v>1.739191594546114</v>
+        <v>3.923777404984851</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>88.99899906872456</v>
+        <v>76.32385627121393</v>
       </c>
       <c r="J12">
-        <v>7.378559810059899</v>
+        <v>12.62655492179062</v>
       </c>
       <c r="L12">
-        <v>4.974490928422894</v>
+        <v>10.59040842936013</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.64623758099735</v>
+        <v>5.951904915395127</v>
       </c>
       <c r="D13">
-        <v>15.21265273968774</v>
+        <v>10.32546433051991</v>
       </c>
       <c r="E13">
-        <v>4.879236805537168</v>
+        <v>9.639798914352074</v>
       </c>
       <c r="F13">
-        <v>121.2200917683144</v>
+        <v>101.9472757098008</v>
       </c>
       <c r="G13">
-        <v>1.739191594546114</v>
+        <v>3.924498206141678</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>88.99899906872456</v>
+        <v>76.28793538448919</v>
       </c>
       <c r="J13">
-        <v>7.378559810059899</v>
+        <v>12.62866641910775</v>
       </c>
       <c r="L13">
-        <v>4.974490928422894</v>
+        <v>10.59270839106606</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10.64623758099735</v>
+        <v>5.921054482390093</v>
       </c>
       <c r="D14">
-        <v>15.21265273968774</v>
+        <v>10.29351877632686</v>
       </c>
       <c r="E14">
-        <v>4.879236805537168</v>
+        <v>9.644056019713517</v>
       </c>
       <c r="F14">
-        <v>121.2200917683144</v>
+        <v>101.7752208246551</v>
       </c>
       <c r="G14">
-        <v>1.739191594546114</v>
+        <v>3.926856762878582</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>88.99899906872456</v>
+        <v>76.17146951648057</v>
       </c>
       <c r="J14">
-        <v>7.378559810059899</v>
+        <v>12.63561895879296</v>
       </c>
       <c r="L14">
-        <v>4.974490928422894</v>
+        <v>10.60024715078333</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>10.64623758099735</v>
+        <v>5.902142534163008</v>
       </c>
       <c r="D15">
-        <v>15.21265273968774</v>
+        <v>10.27400194071082</v>
       </c>
       <c r="E15">
-        <v>4.879236805537168</v>
+        <v>9.646677039917797</v>
       </c>
       <c r="F15">
-        <v>121.2200917683144</v>
+        <v>101.6705227220402</v>
       </c>
       <c r="G15">
-        <v>1.739191594546114</v>
+        <v>3.928307512086429</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>88.99899906872456</v>
+        <v>76.10065366282352</v>
       </c>
       <c r="J15">
-        <v>7.378559810059899</v>
+        <v>12.63992863608518</v>
       </c>
       <c r="L15">
-        <v>4.974490928422894</v>
+        <v>10.60489415541516</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>10.64623758099735</v>
+        <v>5.793560172666507</v>
       </c>
       <c r="D16">
-        <v>15.21265273968774</v>
+        <v>10.16295732205418</v>
       </c>
       <c r="E16">
-        <v>4.879236805537168</v>
+        <v>9.661903765552532</v>
       </c>
       <c r="F16">
-        <v>121.2200917683144</v>
+        <v>101.0811583391498</v>
       </c>
       <c r="G16">
-        <v>1.739191594546114</v>
+        <v>3.936714931062332</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>88.99899906872456</v>
+        <v>75.70286458618061</v>
       </c>
       <c r="J16">
-        <v>7.378559810059899</v>
+        <v>12.66540623682013</v>
       </c>
       <c r="L16">
-        <v>4.974490928422894</v>
+        <v>10.63197459920527</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>10.64623758099735</v>
+        <v>5.726795134269773</v>
       </c>
       <c r="D17">
-        <v>15.21265273968774</v>
+        <v>10.09557019533218</v>
       </c>
       <c r="E17">
-        <v>4.879236805537168</v>
+        <v>9.671430429916111</v>
       </c>
       <c r="F17">
-        <v>121.2200917683144</v>
+        <v>100.7291127173016</v>
       </c>
       <c r="G17">
-        <v>1.739191594546114</v>
+        <v>3.941957135118663</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>88.99899906872456</v>
+        <v>75.46601090799787</v>
       </c>
       <c r="J17">
-        <v>7.378559810059899</v>
+        <v>12.68173051875504</v>
       </c>
       <c r="L17">
-        <v>4.974490928422894</v>
+        <v>10.64899082976388</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>10.64623758099735</v>
+        <v>5.688349722356572</v>
       </c>
       <c r="D18">
-        <v>15.21265273968774</v>
+        <v>10.05709005267103</v>
       </c>
       <c r="E18">
-        <v>4.879236805537168</v>
+        <v>9.676978542035917</v>
       </c>
       <c r="F18">
-        <v>121.2200917683144</v>
+        <v>100.530133473015</v>
       </c>
       <c r="G18">
-        <v>1.739191594546114</v>
+        <v>3.945003711349318</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>88.99899906872456</v>
+        <v>75.33242109138912</v>
       </c>
       <c r="J18">
-        <v>7.378559810059899</v>
+        <v>12.69137432942903</v>
       </c>
       <c r="L18">
-        <v>4.974490928422894</v>
+        <v>10.65892686745577</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>10.64623758099735</v>
+        <v>5.675326436906555</v>
       </c>
       <c r="D19">
-        <v>15.21265273968774</v>
+        <v>10.04411013268174</v>
       </c>
       <c r="E19">
-        <v>4.879236805537168</v>
+        <v>9.678868864969365</v>
       </c>
       <c r="F19">
-        <v>121.2200917683144</v>
+        <v>100.4633661729457</v>
       </c>
       <c r="G19">
-        <v>1.739191594546114</v>
+        <v>3.946040654073486</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>88.99899906872456</v>
+        <v>75.2876440313084</v>
       </c>
       <c r="J19">
-        <v>7.378559810059899</v>
+        <v>12.69468320196381</v>
       </c>
       <c r="L19">
-        <v>4.974490928422894</v>
+        <v>10.66231664001291</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10.64623758099735</v>
+        <v>5.733907219366788</v>
       </c>
       <c r="D20">
-        <v>15.21265273968774</v>
+        <v>10.10271498144356</v>
       </c>
       <c r="E20">
-        <v>4.879236805537168</v>
+        <v>9.670409207343024</v>
       </c>
       <c r="F20">
-        <v>121.2200917683144</v>
+        <v>100.7662257780599</v>
       </c>
       <c r="G20">
-        <v>1.739191594546114</v>
+        <v>3.941395851380088</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>88.99899906872456</v>
+        <v>75.49095102481419</v>
       </c>
       <c r="J20">
-        <v>7.378559810059899</v>
+        <v>12.67996641312114</v>
       </c>
       <c r="L20">
-        <v>4.974490928422894</v>
+        <v>10.64716404023999</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.64623758099735</v>
+        <v>5.930119226100949</v>
       </c>
       <c r="D21">
-        <v>15.21265273968774</v>
+        <v>10.30289143570872</v>
       </c>
       <c r="E21">
-        <v>4.879236805537168</v>
+        <v>9.642802810367801</v>
       </c>
       <c r="F21">
-        <v>121.2200917683144</v>
+        <v>101.8256137056621</v>
       </c>
       <c r="G21">
-        <v>1.739191594546114</v>
+        <v>3.926162735560358</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>88.99899906872456</v>
+        <v>76.20556943868012</v>
       </c>
       <c r="J21">
-        <v>7.378559810059899</v>
+        <v>12.63356618701989</v>
       </c>
       <c r="L21">
-        <v>4.974490928422894</v>
+        <v>10.59802673204474</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.64623758099735</v>
+        <v>6.057708953831865</v>
       </c>
       <c r="D22">
-        <v>15.21265273968774</v>
+        <v>10.43601350788488</v>
       </c>
       <c r="E22">
-        <v>4.879236805537168</v>
+        <v>9.625362264286167</v>
       </c>
       <c r="F22">
-        <v>121.2200917683144</v>
+        <v>102.5489264674522</v>
       </c>
       <c r="G22">
-        <v>1.739191594546114</v>
+        <v>3.916479385065404</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>88.99899906872456</v>
+        <v>76.6960293919653</v>
       </c>
       <c r="J22">
-        <v>7.378559810059899</v>
+        <v>12.60552361654176</v>
       </c>
       <c r="L22">
-        <v>4.974490928422894</v>
+        <v>10.56722540899457</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.64623758099735</v>
+        <v>5.989682680815302</v>
       </c>
       <c r="D23">
-        <v>15.21265273968774</v>
+        <v>10.36476292712541</v>
       </c>
       <c r="E23">
-        <v>4.879236805537168</v>
+        <v>9.634615999907858</v>
       </c>
       <c r="F23">
-        <v>121.2200917683144</v>
+        <v>102.1600656514099</v>
       </c>
       <c r="G23">
-        <v>1.739191594546114</v>
+        <v>3.921623006817365</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>88.99899906872456</v>
+        <v>76.43212575397429</v>
       </c>
       <c r="J23">
-        <v>7.378559810059899</v>
+        <v>12.62028078560832</v>
       </c>
       <c r="L23">
-        <v>4.974490928422894</v>
+        <v>10.58354511615123</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>10.64623758099735</v>
+        <v>5.730692033712216</v>
       </c>
       <c r="D24">
-        <v>15.21265273968774</v>
+        <v>10.09948400665169</v>
       </c>
       <c r="E24">
-        <v>4.879236805537168</v>
+        <v>9.670870680487166</v>
       </c>
       <c r="F24">
-        <v>121.2200917683144</v>
+        <v>100.7494363186423</v>
       </c>
       <c r="G24">
-        <v>1.739191594546114</v>
+        <v>3.941649505628677</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>88.99899906872456</v>
+        <v>75.47966755916437</v>
       </c>
       <c r="J24">
-        <v>7.378559810059899</v>
+        <v>12.68076315946355</v>
       </c>
       <c r="L24">
-        <v>4.974490928422894</v>
+        <v>10.64798945453068</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>10.64623758099735</v>
+        <v>5.449832611648883</v>
       </c>
       <c r="D25">
-        <v>15.21265273968774</v>
+        <v>9.82412027549972</v>
       </c>
       <c r="E25">
-        <v>4.879236805537168</v>
+        <v>9.712606294651771</v>
       </c>
       <c r="F25">
-        <v>121.2200917683144</v>
+        <v>99.36204316489031</v>
       </c>
       <c r="G25">
-        <v>1.739191594546114</v>
+        <v>3.964455808104168</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>88.99899906872456</v>
+        <v>74.55329849327032</v>
       </c>
       <c r="J25">
-        <v>7.378559810059899</v>
+        <v>12.7557255898399</v>
       </c>
       <c r="L25">
-        <v>4.974490928422894</v>
+        <v>10.72319724458163</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_220/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_220/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.2432754109253</v>
+        <v>8.414130783878839</v>
       </c>
       <c r="D2">
-        <v>9.63159552473418</v>
+        <v>12.00637916359267</v>
       </c>
       <c r="E2">
-        <v>9.745651487040339</v>
+        <v>5.07131257770514</v>
       </c>
       <c r="F2">
-        <v>98.45660804162037</v>
+        <v>98.58828094651379</v>
       </c>
       <c r="G2">
-        <v>3.982324374123778</v>
+        <v>1.923464916667392</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>73.95804897221228</v>
+        <v>72.11409571982351</v>
       </c>
       <c r="J2">
-        <v>12.81920940909195</v>
+        <v>7.080994598266817</v>
       </c>
       <c r="L2">
-        <v>10.7835427499928</v>
+        <v>5.271597208065862</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.104302578158464</v>
+        <v>7.581908303669005</v>
       </c>
       <c r="D3">
-        <v>9.507952370026249</v>
+        <v>10.81296561160094</v>
       </c>
       <c r="E3">
-        <v>9.769517484570104</v>
+        <v>5.149680757859429</v>
       </c>
       <c r="F3">
-        <v>97.91541962454778</v>
+        <v>90.85479036693226</v>
       </c>
       <c r="G3">
-        <v>3.995125036841528</v>
+        <v>1.985904173241337</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>73.60855874301228</v>
+        <v>66.56914564901322</v>
       </c>
       <c r="J3">
-        <v>12.86737087250441</v>
+        <v>7.028045896883693</v>
       </c>
       <c r="L3">
-        <v>10.82757635981412</v>
+        <v>5.393806570572122</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5.019783746689234</v>
+        <v>7.091225524415795</v>
       </c>
       <c r="D4">
-        <v>9.435544475530445</v>
+        <v>10.15166519145963</v>
       </c>
       <c r="E4">
-        <v>9.784905445943942</v>
+        <v>5.196557515890762</v>
       </c>
       <c r="F4">
-        <v>97.61875603217129</v>
+        <v>86.46813461439505</v>
       </c>
       <c r="G4">
-        <v>4.003331750578287</v>
+        <v>2.021123871341878</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>73.42041106809553</v>
+        <v>63.43511578535068</v>
       </c>
       <c r="J4">
-        <v>12.89946642057406</v>
+        <v>7.012005485980946</v>
       </c>
       <c r="L4">
-        <v>10.85617237651303</v>
+        <v>5.46804082550629</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.985594426278229</v>
+        <v>6.893426165347864</v>
       </c>
       <c r="D5">
-        <v>9.406939693557337</v>
+        <v>9.910634554840634</v>
       </c>
       <c r="E5">
-        <v>9.791361987479481</v>
+        <v>5.21552593916105</v>
       </c>
       <c r="F5">
-        <v>97.50679875096158</v>
+        <v>84.74048599244657</v>
       </c>
       <c r="G5">
-        <v>4.006764203830502</v>
+        <v>2.034988104162347</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>73.35035957527111</v>
+        <v>62.20304692263661</v>
       </c>
       <c r="J5">
-        <v>12.91317891532743</v>
+        <v>7.008718965991491</v>
       </c>
       <c r="L5">
-        <v>10.86821925778727</v>
+        <v>5.498361392428864</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.979934027558397</v>
+        <v>6.860649720052094</v>
       </c>
       <c r="D6">
-        <v>9.402244896250163</v>
+        <v>9.870914276544141</v>
       </c>
       <c r="E6">
-        <v>9.79244534984664</v>
+        <v>5.218671497663877</v>
       </c>
       <c r="F6">
-        <v>97.48874706387835</v>
+        <v>84.4566567922279</v>
       </c>
       <c r="G6">
-        <v>4.007339509630406</v>
+        <v>2.037267037016961</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>73.33912641365818</v>
+        <v>62.0007670959403</v>
       </c>
       <c r="J6">
-        <v>12.91549407390725</v>
+        <v>7.008350268852172</v>
       </c>
       <c r="L6">
-        <v>10.8702434657943</v>
+        <v>5.503406102658258</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.019321568819845</v>
+        <v>7.088552139709689</v>
       </c>
       <c r="D7">
-        <v>9.435155025069399</v>
+        <v>10.14839274248578</v>
       </c>
       <c r="E7">
-        <v>9.784991767126817</v>
+        <v>5.196813687836682</v>
       </c>
       <c r="F7">
-        <v>97.61720999822525</v>
+        <v>86.44461952366123</v>
       </c>
       <c r="G7">
-        <v>4.003377683767833</v>
+        <v>2.021312529590459</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>73.41943956831911</v>
+        <v>63.41833701998679</v>
       </c>
       <c r="J7">
-        <v>12.89964878968761</v>
+        <v>7.011948910474864</v>
       </c>
       <c r="L7">
-        <v>10.8563332483378</v>
+        <v>5.468449184169179</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.195218212051413</v>
+        <v>8.120660547835554</v>
       </c>
       <c r="D8">
-        <v>9.588247358543912</v>
+        <v>11.5852668157632</v>
       </c>
       <c r="E8">
-        <v>9.753728849786581</v>
+        <v>5.098725258950226</v>
       </c>
       <c r="F8">
-        <v>98.26260144000041</v>
+        <v>95.81441571786658</v>
       </c>
       <c r="G8">
-        <v>3.986666547945113</v>
+        <v>1.94587245909085</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>73.83204242442808</v>
+        <v>70.12106943365492</v>
       </c>
       <c r="J8">
-        <v>12.83529069276932</v>
+        <v>7.058632663834651</v>
       </c>
       <c r="L8">
-        <v>10.79840295209612</v>
+        <v>5.314112242529421</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.544512110489363</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D9">
-        <v>9.915351719947514</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E9">
-        <v>9.698191484204274</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F9">
-        <v>99.81138231629728</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G9">
-        <v>3.956608911971034</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>74.85184375658845</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J9">
-        <v>12.72918208221883</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L9">
-        <v>10.69709614158885</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.801171664348588</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D10">
-        <v>10.17068383713276</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E10">
-        <v>9.660825974703121</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F10">
-        <v>101.1218036377911</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G10">
-        <v>3.936120989532283</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>75.73024894881925</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J10">
-        <v>12.66357806392296</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L10">
-        <v>10.6300530449684</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.917438816810465</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D11">
-        <v>10.28978353325452</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E11">
-        <v>9.644556442143589</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F11">
-        <v>101.7551583577401</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G11">
-        <v>3.92713383011899</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>76.15789633293811</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J11">
-        <v>12.63644007479573</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L11">
-        <v>10.6011340615302</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.961358400866619</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D12">
-        <v>10.3352799691126</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E12">
-        <v>9.638498886602877</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F12">
-        <v>102.0003087632881</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G12">
-        <v>3.923777404984851</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>76.32385627121393</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J12">
-        <v>12.62655492179062</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L12">
-        <v>10.59040842936013</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.951904915395127</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D13">
-        <v>10.32546433051991</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E13">
-        <v>9.639798914352074</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F13">
-        <v>101.9472757098008</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G13">
-        <v>3.924498206141678</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>76.28793538448919</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J13">
-        <v>12.62866641910775</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L13">
-        <v>10.59270839106606</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.921054482390093</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D14">
-        <v>10.29351877632686</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E14">
-        <v>9.644056019713517</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F14">
-        <v>101.7752208246551</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G14">
-        <v>3.926856762878582</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>76.17146951648057</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J14">
-        <v>12.63561895879296</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L14">
-        <v>10.60024715078333</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.902142534163008</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D15">
-        <v>10.27400194071082</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E15">
-        <v>9.646677039917797</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F15">
-        <v>101.6705227220402</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G15">
-        <v>3.928307512086429</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>76.10065366282352</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J15">
-        <v>12.63992863608518</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L15">
-        <v>10.60489415541516</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.793560172666507</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D16">
-        <v>10.16295732205418</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E16">
-        <v>9.661903765552532</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F16">
-        <v>101.0811583391498</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G16">
-        <v>3.936714931062332</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>75.70286458618061</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J16">
-        <v>12.66540623682013</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L16">
-        <v>10.63197459920527</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.726795134269773</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D17">
-        <v>10.09557019533218</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E17">
-        <v>9.671430429916111</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F17">
-        <v>100.7291127173016</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G17">
-        <v>3.941957135118663</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>75.46601090799787</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J17">
-        <v>12.68173051875504</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L17">
-        <v>10.64899082976388</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.688349722356572</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D18">
-        <v>10.05709005267103</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E18">
-        <v>9.676978542035917</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F18">
-        <v>100.530133473015</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G18">
-        <v>3.945003711349318</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>75.33242109138912</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J18">
-        <v>12.69137432942903</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L18">
-        <v>10.65892686745577</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.675326436906555</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D19">
-        <v>10.04411013268174</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E19">
-        <v>9.678868864969365</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F19">
-        <v>100.4633661729457</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G19">
-        <v>3.946040654073486</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>75.2876440313084</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J19">
-        <v>12.69468320196381</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L19">
-        <v>10.66231664001291</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.733907219366788</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D20">
-        <v>10.10271498144356</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E20">
-        <v>9.670409207343024</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F20">
-        <v>100.7662257780599</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G20">
-        <v>3.941395851380088</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>75.49095102481419</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J20">
-        <v>12.67996641312114</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L20">
-        <v>10.64716404023999</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.930119226100949</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D21">
-        <v>10.30289143570872</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E21">
-        <v>9.642802810367801</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F21">
-        <v>101.8256137056621</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G21">
-        <v>3.926162735560358</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>76.20556943868012</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J21">
-        <v>12.63356618701989</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L21">
-        <v>10.59802673204474</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6.057708953831865</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D22">
-        <v>10.43601350788488</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E22">
-        <v>9.625362264286167</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F22">
-        <v>102.5489264674522</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G22">
-        <v>3.916479385065404</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>76.6960293919653</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J22">
-        <v>12.60552361654176</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L22">
-        <v>10.56722540899457</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.989682680815302</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D23">
-        <v>10.36476292712541</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E23">
-        <v>9.634615999907858</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F23">
-        <v>102.1600656514099</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G23">
-        <v>3.921623006817365</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>76.43212575397429</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J23">
-        <v>12.62028078560832</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L23">
-        <v>10.58354511615123</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.730692033712216</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D24">
-        <v>10.09948400665169</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E24">
-        <v>9.670870680487166</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F24">
-        <v>100.7494363186423</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G24">
-        <v>3.941649505628677</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>75.47966755916437</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J24">
-        <v>12.68076315946355</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L24">
-        <v>10.64798945453068</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.449832611648883</v>
+        <v>10.6462375809973</v>
       </c>
       <c r="D25">
-        <v>9.82412027549972</v>
+        <v>15.2126527396879</v>
       </c>
       <c r="E25">
-        <v>9.712606294651771</v>
+        <v>4.879236805537239</v>
       </c>
       <c r="F25">
-        <v>99.36204316489031</v>
+        <v>121.2200917683153</v>
       </c>
       <c r="G25">
-        <v>3.964455808104168</v>
+        <v>1.739191594546019</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>74.55329849327032</v>
+        <v>88.99899906872524</v>
       </c>
       <c r="J25">
-        <v>12.7557255898399</v>
+        <v>7.378559810059879</v>
       </c>
       <c r="L25">
-        <v>10.72319724458163</v>
+        <v>4.974490928422895</v>
       </c>
       <c r="O25">
         <v>0</v>
